--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5381,6 +5381,3216 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Leh</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Jammu</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Shimla</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Dehradun</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Lucknow</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Jaipur</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>copper mine</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Patna</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Gandhinagar</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Bhopal</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Raipur</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>iron mine</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>aluminum mine</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>iron mine</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>aluminum mine</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Bhubaneswar</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Gangtok</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Guwahati</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Shillong</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Itanagar</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>oil mine</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Kohima</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>oil mine</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Imphal</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>oil mine</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Agartala</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>oil mine</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Aizawl</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Panaji</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>iron mine</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>gold mine</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Vijayawada</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>oil mine</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Thiruvananthapuram</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>oil mine</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Port Blair</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Bhaluwang</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Salyan</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Thimphu</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Paro</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>Wangdue Prodrang</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>Punakha</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Rangpur</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Rajshahi</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>oil mine</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>Mymensingh</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Sylhet</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>oil mine</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Khulna</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>Barisal</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Chittagong</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>oil mine</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>New Dehli</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>quarry</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>copper mine</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>logging</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
